--- a/data_year/zb/建筑业/按行业分建筑业总产值.xlsx
+++ b/data_year/zb/建筑业/按行业分建筑业总产值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,516 +473,300 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1498.9055</v>
+      </c>
+      <c r="C2" t="n">
+        <v>27955.9747</v>
+      </c>
       <c r="D2" t="n">
-        <v>12497.5961</v>
+        <v>96031.1338</v>
       </c>
       <c r="E2" t="n">
-        <v>1091.4629</v>
+        <v>7226.7981</v>
       </c>
       <c r="F2" t="n">
-        <v>428.2368</v>
+        <v>3231.6931</v>
       </c>
       <c r="G2" t="n">
-        <v>10977.8964</v>
+        <v>84073.7371</v>
       </c>
       <c r="H2" t="n">
-        <v>8330.632100000001</v>
+        <v>56117.7625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1765.80149</v>
+      </c>
       <c r="C3" t="n">
-        <v>13485.9471</v>
+        <v>31214.22355</v>
       </c>
       <c r="D3" t="n">
-        <v>15361.6</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>116463.32067</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8149.05283</v>
+      </c>
       <c r="F3" t="n">
-        <v>495.1786</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>4256.94553</v>
+      </c>
+      <c r="G3" t="n">
+        <v>102291.5208</v>
+      </c>
       <c r="H3" t="n">
-        <v>10086.0111</v>
+        <v>71075.94992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1926.98806</v>
+      </c>
       <c r="C4" t="n">
-        <v>16035.9745</v>
+        <v>34784.07657</v>
       </c>
       <c r="D4" t="n">
-        <v>18527.2</v>
+        <v>137217.858</v>
       </c>
       <c r="E4" t="n">
-        <v>969.8861000000001</v>
+        <v>8062.7676</v>
       </c>
       <c r="F4" t="n">
-        <v>663.6233999999999</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>5310.18719</v>
+      </c>
+      <c r="G4" t="n">
+        <v>121917.91516</v>
+      </c>
       <c r="H4" t="n">
-        <v>11657.0088</v>
+        <v>87133.83859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>295.812</v>
-      </c>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>5821.7446</v>
+        <v>39739.96212</v>
       </c>
       <c r="D5" t="n">
-        <v>23083.9</v>
+        <v>160366.06329</v>
       </c>
       <c r="E5" t="n">
-        <v>1840.2815</v>
-      </c>
-      <c r="F5" t="n">
-        <v>809.1824</v>
-      </c>
-      <c r="G5" t="n">
-        <v>20138.5904</v>
-      </c>
+        <v>9044.814479999999</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>14316.8458</v>
+        <v>102285.92344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>44135.57392</v>
+      </c>
       <c r="D6" t="n">
-        <v>29021.5</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>176713.41618</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9776.530860000001</v>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>113880.09079</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>505.155509999996</v>
-      </c>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>9342.443929999999</v>
+        <v>46263.2275</v>
       </c>
       <c r="D7" t="n">
-        <v>34552.1</v>
+        <v>180757.47357</v>
       </c>
       <c r="E7" t="n">
-        <v>2927.23346</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1236.90959</v>
-      </c>
-      <c r="G7" t="n">
-        <v>29882.79828</v>
-      </c>
+        <v>9850.51684</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>20540.35435</v>
+        <v>115958.21869</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>600.28326</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>11107.50787</v>
+        <v>50465.85175</v>
       </c>
       <c r="D8" t="n">
-        <v>41557.16</v>
+        <v>193566.77736</v>
       </c>
       <c r="E8" t="n">
-        <v>3327.8489</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1523.75922</v>
-      </c>
-      <c r="G8" t="n">
-        <v>36105.26661</v>
-      </c>
+        <v>10517.90842</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>24997.75874</v>
+        <v>123537.39601</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>773.913009999995</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>13590.32351</v>
+        <v>56807.5827</v>
       </c>
       <c r="D9" t="n">
-        <v>51043.71</v>
+        <v>213943.55899</v>
       </c>
       <c r="E9" t="n">
-        <v>4171.7938</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1846.73952</v>
-      </c>
-      <c r="G9" t="n">
-        <v>44251.26786</v>
-      </c>
+        <v>11607.72611</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>30660.94435</v>
+        <v>135703.52523</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>939.03009</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>17040.10528</v>
+        <v>63416.53108</v>
       </c>
       <c r="D10" t="n">
-        <v>62036.80608</v>
+        <v>225816.86</v>
       </c>
       <c r="E10" t="n">
-        <v>5146.05588</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2190.87816</v>
-      </c>
-      <c r="G10" t="n">
-        <v>53760.84195</v>
-      </c>
+        <v>11952.87173</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>36720.73667</v>
+        <v>148829.53173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1099.42505</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>22959.70405</v>
+        <v>68608.20501000001</v>
       </c>
       <c r="D11" t="n">
-        <v>76807.74163999999</v>
+        <v>248443.27073</v>
       </c>
       <c r="E11" t="n">
-        <v>5818.7414</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2621.20607</v>
-      </c>
-      <c r="G11" t="n">
-        <v>67268.36912</v>
-      </c>
+        <v>13339.51553</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>44308.66507</v>
+        <v>154197.59404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1498.9055</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>27955.9747</v>
+        <v>75364.22519</v>
       </c>
       <c r="D12" t="n">
-        <v>96031.1338</v>
+        <v>263947.39286</v>
       </c>
       <c r="E12" t="n">
-        <v>7226.7981</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3231.6931</v>
-      </c>
-      <c r="G12" t="n">
-        <v>84073.7371</v>
-      </c>
+        <v>14057.74899</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>56117.7625</v>
+        <v>161877.08061</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1765.80149</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>31214.22355</v>
+        <v>83602.64818</v>
       </c>
       <c r="D13" t="n">
-        <v>116463.32067</v>
+        <v>293027.41778</v>
       </c>
       <c r="E13" t="n">
-        <v>8149.05283</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4256.94553</v>
-      </c>
-      <c r="G13" t="n">
-        <v>102291.5208</v>
-      </c>
+        <v>15217.18483</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>71075.94992</v>
+        <v>179934.34556</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1926.98806</v>
-      </c>
-      <c r="C14" t="n">
-        <v>34784.07657</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>137217.858</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8062.7676</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5310.18719</v>
-      </c>
-      <c r="G14" t="n">
-        <v>121917.91516</v>
-      </c>
-      <c r="H14" t="n">
-        <v>87133.83859</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>39739.96212</v>
-      </c>
-      <c r="D15" t="n">
-        <v>160366.06329</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9044.814479999999</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>102285.92344</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>44135.57392</v>
-      </c>
-      <c r="D16" t="n">
-        <v>176713.41618</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9776.530860000001</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>113880.09079</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>46263.2275</v>
-      </c>
-      <c r="D17" t="n">
-        <v>180757.47357</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9850.51684</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>115958.21869</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>50465.85175</v>
-      </c>
-      <c r="D18" t="n">
-        <v>193566.77736</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10517.90842</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>123537.39601</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>56807.5827</v>
-      </c>
-      <c r="D19" t="n">
-        <v>213943.55899</v>
-      </c>
-      <c r="E19" t="n">
-        <v>11607.72611</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>135703.52523</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>63416.53108</v>
-      </c>
-      <c r="D20" t="n">
-        <v>225816.86</v>
-      </c>
-      <c r="E20" t="n">
-        <v>11952.87173</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>148829.53173</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>68608.20501000001</v>
-      </c>
-      <c r="D21" t="n">
-        <v>248443.27073</v>
-      </c>
-      <c r="E21" t="n">
-        <v>13339.51553</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>154197.59404</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>75364.22519</v>
-      </c>
-      <c r="D22" t="n">
-        <v>263947.39286</v>
-      </c>
-      <c r="E22" t="n">
-        <v>14057.74899</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>161877.08061</v>
-      </c>
+        <v>311979.83974</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
